--- a/data/income_statement/2digits/size/39_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/39_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>39-Remediation activities and other waste management services</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>39-Remediation activities and other waste management services</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,104 +841,119 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1538.25069</v>
+        <v>2142.90877</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3177.74552</v>
+        <v>4879.36375</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2027.92876</v>
+        <v>3350.75823</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>981.2777199999999</v>
+        <v>1521.95535</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1559.68732</v>
+        <v>1797.77299</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1738.14108</v>
+        <v>2401.81655</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2491.8618</v>
+        <v>2498.6618</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3623.31434</v>
+        <v>4349.14703</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5199.56617</v>
+        <v>7769.49838</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12017.70896</v>
+        <v>12430.46288</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9130.54693</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11067.78918</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11594.07</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1422.39025</v>
+        <v>2003.43001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3063.04931</v>
+        <v>4531.695519999999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1862.72649</v>
+        <v>3185.55596</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>981.2777199999999</v>
+        <v>1518.31835</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1541.85287</v>
+        <v>1779.93854</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1735.54694</v>
+        <v>2399.22241</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2398.2298</v>
+        <v>2405.0298</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3448.76411</v>
+        <v>4165.88711</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5126.56033</v>
+        <v>7271.36133</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8804.11823</v>
+        <v>9214.18643</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7350.787969999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9273.797359999999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>11419.808</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2.043</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>0</v>
+        <v>232.97202</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>0</v>
+        <v>3.637</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>0</v>
@@ -1052,7 +968,7 @@
         <v>164.49668</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>26.83202</v>
+        <v>446.83202</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>3166.22765</v>
@@ -1060,14 +976,19 @@
       <c r="M7" s="48" t="n">
         <v>1749.12648</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>113.81744</v>
+        <v>137.43576</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>114.69621</v>
@@ -1088,22 +1009,27 @@
         <v>3.0432</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>10.05355</v>
+        <v>18.76324</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>46.17382</v>
+        <v>51.30503</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>47.36308</v>
+        <v>50.0488</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>30.63248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>44.86534</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>160.462</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2.30294</v>
@@ -1130,19 +1056,24 @@
         <v>4.95</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>10.14208</v>
+        <v>11.34208</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>41.54831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>42.50031</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>50.952</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2.30294</v>
@@ -1169,19 +1100,24 @@
         <v>3.2</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7.78858</v>
+        <v>8.988580000000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>41.54831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>42.50031</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>50.952</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1535.94775</v>
+        <v>2140.60583</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3170.81958</v>
+        <v>4872.437809999999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2017.73202</v>
+        <v>3340.56149</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>981.05272</v>
+        <v>1521.73035</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1557.04582</v>
+        <v>1795.13149</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1667.73908</v>
+        <v>2331.41455</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2389.0413</v>
+        <v>2395.8413</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3618.36434</v>
+        <v>4344.19703</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5199.56617</v>
+        <v>7768.99838</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12007.56688</v>
+        <v>12419.1208</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9088.998619999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11025.28887</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11543.118</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>957.45899</v>
+        <v>1162.32296</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2317.26587</v>
+        <v>3206.73571</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1269.82599</v>
+        <v>2135.50685</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>771.43057</v>
+        <v>964.4418199999999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>968.6975600000001</v>
+        <v>1048.31595</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>810.70897</v>
+        <v>1337.46669</v>
       </c>
       <c r="I14" s="47" t="n">
         <v>1372.75141</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2748.26528</v>
+        <v>3123.56452</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3296.24704</v>
+        <v>4601.31675</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8435.082420000001</v>
+        <v>8674.23918</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6618.148169999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8252.20996</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10198.113</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1361,40 +1317,45 @@
         <v>112.05</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1259.99545</v>
+        <v>1544.29045</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>883.1710400000001</v>
+        <v>1045.45621</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2691.74551</v>
+        <v>2700.22071</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>709.39601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>719.54601</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1775.005</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>296.68434</v>
+        <v>299.68434</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>837.84996</v>
+        <v>1212.42504</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>309.46752</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>0</v>
+        <v>179.01125</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>394.80921</v>
+        <v>448.43603</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>207.81807</v>
+        <v>358.5055</v>
       </c>
       <c r="I16" s="48" t="n">
         <v>580.76099</v>
@@ -1403,58 +1364,68 @@
         <v>756.28752</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>717.54558</v>
+        <v>1642.3196</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3814.84788</v>
+        <v>4000.76388</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2656.74142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4227.35242</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5317.623</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>660.7746500000001</v>
+        <v>862.6386199999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1413.56724</v>
+        <v>1928.462</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>958.6090799999999</v>
+        <v>1824.28994</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>771.43057</v>
+        <v>785.43057</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>573.8883499999999</v>
+        <v>599.8799200000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>96.84233</v>
+        <v>472.91262</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>679.94042</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>712.2183299999999</v>
+        <v>803.2225699999999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1695.53042</v>
+        <v>1913.54094</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1928.48903</v>
+        <v>1937.25842</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3252.01074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3305.31153</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3105.485</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1484,94 +1455,109 @@
         <v>0</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>0</v>
+        <v>35.99617</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>578.48876</v>
+        <v>978.28287</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>853.5537099999999</v>
+        <v>1665.7021</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>747.90603</v>
+        <v>1205.05464</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>209.62215</v>
+        <v>557.28853</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>588.34826</v>
+        <v>746.8155400000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>857.03011</v>
+        <v>993.94786</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1016.28989</v>
+        <v>1023.08989</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>870.09906</v>
+        <v>1220.63251</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1903.31913</v>
+        <v>3167.68163</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3572.48446</v>
+        <v>3744.88162</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2470.85045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2773.07891</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1345.005</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>665.40868</v>
+        <v>1160.32498</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>881.58465</v>
+        <v>1443.45545</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>637.99629</v>
+        <v>794.52679</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>199.37116</v>
+        <v>440.23246</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>545.8533</v>
+        <v>697.61365</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>506.811</v>
+        <v>592.15095</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>814.8161899999999</v>
+        <v>1191.84831</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1089.07834</v>
+        <v>1822.59245</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1844.23541</v>
+        <v>2640.10607</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2434.25653</v>
+        <v>2625.73792</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1949.72456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2199.40635</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5445.624</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,23 +1592,28 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>221.41289</v>
+        <v>261.96972</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>102.69532</v>
+        <v>283.25401</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>0</v>
+        <v>31.37744</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>0</v>
+        <v>1.94358</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>34.45473</v>
@@ -1634,7 +1625,7 @@
         <v>1.47315</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>9.57441</v>
+        <v>260.6009</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>0</v>
@@ -1643,130 +1634,150 @@
         <v>49.33541</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>32.39498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>38.57565</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>8.295999999999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>443.99579</v>
+        <v>898.35526</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>778.88933</v>
+        <v>1160.20144</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>637.99629</v>
+        <v>763.14935</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>199.37116</v>
+        <v>438.28888</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>511.39857</v>
+        <v>663.1589200000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>489.09372</v>
+        <v>574.43367</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>813.3430400000001</v>
+        <v>1190.37516</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1079.50393</v>
+        <v>1561.99155</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1844.23541</v>
+        <v>2640.10607</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2384.92112</v>
+        <v>2576.40251</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1917.32958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2160.8307</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5437.328</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-86.91992</v>
+        <v>-182.04211</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-28.03094</v>
+        <v>222.24665</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>109.90974</v>
+        <v>410.52785</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>10.25099</v>
+        <v>117.05607</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>42.49496</v>
+        <v>49.20189</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>350.21911</v>
+        <v>401.79691</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>201.4737</v>
+        <v>-168.75842</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-218.97928</v>
+        <v>-601.95994</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>59.08372</v>
+        <v>527.5755600000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1138.22793</v>
+        <v>1119.1437</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>521.12589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>573.6725600000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-4100.619</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>18.42254</v>
+        <v>251.4002</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>55.00122</v>
+        <v>236.33736</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>14.77183</v>
+        <v>18.65385</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1.81565</v>
+        <v>4.26175</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>0</v>
+        <v>0.00372</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>0.40978</v>
+        <v>1.01582</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>0.02245</v>
+        <v>1.8643</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9.492149999999999</v>
+        <v>539.2863299999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>59.82976</v>
+        <v>461.99857</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>435.15374</v>
+        <v>482.90046</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>126.01375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>142.7013</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2281.891</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>0</v>
@@ -1871,7 +1892,7 @@
         <v>0.02135</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1.20936</v>
+        <v>28.49585</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>21.39404</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>19.70069</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>15.304</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>15.64708</v>
+        <v>125.8309</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>8.943070000000001</v>
+        <v>29.04996</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>0.80402</v>
+        <v>4.68604</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>0.74799</v>
+        <v>3.19409</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>0.40978</v>
+        <v>1.01582</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1.17731</v>
+        <v>3.01916</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3.9418</v>
+        <v>533.73499</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6.47484</v>
+        <v>362.73102</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>280.14242</v>
+        <v>327.88914</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>104.13695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>120.8245</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2276.288</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2.77546</v>
+        <v>125.5693</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>44.65305</v>
+        <v>205.8823</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>9.901299999999999</v>
@@ -2132,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>0</v>
+        <v>0.00372</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>0</v>
@@ -2141,10 +2197,10 @@
         <v>-1.15486</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5.529</v>
+        <v>5.52999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>46.93</v>
+        <v>65.55614</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>132.73886</v>
@@ -2152,50 +2208,60 @@
       <c r="M35" s="48" t="n">
         <v>2.17611</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>-9.701000000000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>52.56592</v>
+        <v>85.61527000000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>12.07895</v>
+        <v>41.29376</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4.975569999999999</v>
+        <v>5.969609999999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>0</v>
+        <v>3.40708</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>0.00115</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2.45133</v>
+        <v>5.02311</v>
       </c>
       <c r="I36" s="47" t="n">
         <v>10.78817</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3.83552</v>
+        <v>559.70272</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2.47566</v>
+        <v>306.89589</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>326.30987</v>
+        <v>342.00733</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>97.36967999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>99.43598</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5559.56</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>48.06855</v>
+        <v>81.11789999999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>12.07895</v>
+        <v>41.29376</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4.975569999999999</v>
+        <v>5.969609999999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>0</v>
+        <v>3.40708</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1.80233</v>
+        <v>4.37411</v>
       </c>
       <c r="I40" s="48" t="n">
         <v>0.44442</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3.83552</v>
+        <v>559.70272</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2.47566</v>
+        <v>306.89589</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>241.0563</v>
+        <v>256.75376</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>97.36941</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>99.43571</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5528.357</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>4.49737</v>
@@ -2464,89 +2560,104 @@
       <c r="M43" s="48" t="n">
         <v>0.00027</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>31.203</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>0.93452</v>
+        <v>49.32889</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>11.44863</v>
+        <v>74.80813000000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>0.3625</v>
+        <v>46.00644</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>0.24246</v>
+        <v>66.74642999999999</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>0.0567</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8.247440000000001</v>
+        <v>8.676069999999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>0.02143</v>
+        <v>4.30771</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>23.00512</v>
+        <v>285.46915</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9.02312</v>
+        <v>354.74324</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>22.00205</v>
+        <v>54.45059</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>30.90984</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>48.96928</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>0.93452</v>
+        <v>49.32889</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>11.44863</v>
+        <v>74.80813000000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>0.3625</v>
+        <v>1.6553</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>0.24246</v>
+        <v>66.74642999999999</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>0.0567</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8.247440000000001</v>
+        <v>8.676069999999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>0.02143</v>
+        <v>4.30771</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>23.00512</v>
+        <v>285.46915</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9.02312</v>
+        <v>354.74324</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>22.00205</v>
+        <v>54.45059</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>30.90984</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>48.96928</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2555,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>0</v>
+        <v>44.35114</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>0</v>
@@ -2581,65 +2692,75 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-121.99782</v>
+        <v>-65.58607000000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3.4427</v>
+        <v>342.48212</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>119.3435</v>
+        <v>377.20565</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>11.82418</v>
+        <v>51.16431</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>42.43711</v>
+        <v>49.14776000000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>339.93012</v>
+        <v>389.11355</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>190.68655</v>
+        <v>-181.99</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-236.32777</v>
+        <v>-907.84548</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>107.4147</v>
+        <v>327.935</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1225.06975</v>
+        <v>1205.58624</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>518.8601200000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>567.9685999999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-7409.928</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>14.75331</v>
+        <v>15.2456</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>16.23731</v>
+        <v>22.72037</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1.47813</v>
+        <v>1.90313</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>0</v>
+        <v>26.40056</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7.09222</v>
+        <v>32.78175</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>27.25242</v>
@@ -2648,22 +2769,27 @@
         <v>12.7549</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>78.78755</v>
+        <v>210.51475</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>206.6226</v>
+        <v>926.17668</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>52.93691</v>
+        <v>112.06411</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>33.85667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>35.35667</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>61.503</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2690,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0</v>
+        <v>708.84449</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>0</v>
@@ -2698,26 +2824,31 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14.75331</v>
+        <v>15.2456</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>16.23731</v>
+        <v>22.72037</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1.47813</v>
+        <v>1.90313</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>0</v>
+        <v>26.40056</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7.09222</v>
+        <v>32.78175</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>27.25242</v>
@@ -2726,61 +2857,71 @@
         <v>12.7549</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>78.78755</v>
+        <v>210.51475</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>206.6226</v>
+        <v>217.33219</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>52.93691</v>
+        <v>112.06411</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>33.85667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>35.35667</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>61.503</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>26.7309</v>
+        <v>28.44335</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>26.79578</v>
+        <v>27.11813</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>23.05966</v>
+        <v>23.28174</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1.63802</v>
+        <v>4.348199999999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1.2754</v>
+        <v>1.45141</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>258.33839</v>
+        <v>258.53889</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>31.88629</v>
+        <v>32.20724</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1458.3009</v>
+        <v>1895.69134</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>897.2731700000001</v>
+        <v>918.38926</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>366.96512</v>
+        <v>377.93857</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>47.68251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>86.43683</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>186.836</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>0</v>
@@ -2843,7 +2989,7 @@
         <v>0.47078</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>0</v>
+        <v>120.61677</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>0</v>
@@ -2854,107 +3000,122 @@
       <c r="M53" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>26.7309</v>
+        <v>28.44335</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>26.79578</v>
+        <v>27.11813</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>23.05966</v>
+        <v>23.28174</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1.63802</v>
+        <v>4.348199999999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1.2754</v>
+        <v>1.45141</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>258.33839</v>
+        <v>258.53889</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>31.41551</v>
+        <v>31.73646</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1458.3009</v>
+        <v>1775.07457</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>897.2731700000001</v>
+        <v>918.38926</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>366.96512</v>
+        <v>377.93857</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>47.68251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>86.43683</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>186.836</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-133.97541</v>
+        <v>-78.78382000000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-7.11577</v>
+        <v>338.08436</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>97.76197000000001</v>
+        <v>355.82704</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>10.18616</v>
+        <v>73.21666999999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>48.25393</v>
+        <v>80.47810000000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>108.84415</v>
+        <v>157.82708</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>171.55516</v>
+        <v>-201.44234</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1615.84112</v>
+        <v>-2593.02207</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-583.23587</v>
+        <v>335.72242</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>911.0415400000001</v>
+        <v>939.71178</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>505.03428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>516.8884399999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-7535.261</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>6.97947</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>63.70982</v>
+        <v>169.2704</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>40.29258</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3.6908</v>
+        <v>24.89569</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16.25163</v>
+        <v>19.84272</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>86.03627</v>
+        <v>99.22129</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>18.32767</v>
@@ -2963,55 +3124,63 @@
         <v>39.30153</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>30.32288</v>
+        <v>39.29095</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>293.98195</v>
+        <v>297.36561</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>91.49231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>96.99592</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>69.749</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-140.95488</v>
+        <v>-85.76329</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-70.82558999999999</v>
+        <v>168.81396</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>57.46939</v>
+        <v>315.53446</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6.49536</v>
+        <v>48.32098000000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>32.0023</v>
+        <v>60.63538</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>22.80788</v>
+        <v>58.60579</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>153.22749</v>
+        <v>-219.77001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1655.14265</v>
+        <v>-2632.3236</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-613.55875</v>
+        <v>296.43147</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>617.05959</v>
+        <v>642.34617</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>413.54197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>419.89252</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-7605.01</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>17</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>22</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>15</v>
+      </c>
+      <c r="G59" s="35" t="n">
         <v>13</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>15</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>18</v>
-      </c>
-      <c r="F59" s="35" t="n">
+      <c r="H59" s="35" t="n">
+        <v>11</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>12</v>
       </c>
-      <c r="G59" s="35" t="n">
-        <v>10</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>8</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>9</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>28</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>